--- a/assets/userData.example.xlsx
+++ b/assets/userData.example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6AD20-535E-4019-9930-A621E0CE35F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E9269-C474-4816-97A2-9BD5FC226FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1D200F0E-6761-416D-92E1-D39314A3A76A}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{1D200F0E-6761-416D-92E1-D39314A3A76A}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="170" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">features!$A$1:$B$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">images!$A$1:$C$234</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">products!$A$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">products!$A$1:$F$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">series!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="661">
-  <si>
-    <t>GT-5004TF</t>
-  </si>
-  <si>
-    <t>GT-5005TF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="652">
   <si>
     <t>GT-5008</t>
   </si>
@@ -961,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GT-501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT-5009</t>
   </si>
   <si>
@@ -1066,10 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seat Attachment for GT-6008 Walker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>forearm support/cradle for crutch users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1095,10 +1081,6 @@
     <t>forearm / elbow crutch models with large steel cuffs</t>
   </si>
   <si>
-    <t>Tool-Free Bath and Shower Chair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bath and Transfer Bench</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,10 +1192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tool-free aluminum bath and shower stool with front-open seat panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aluminum bath and transfer bench with one-piece seat panel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1310,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>converts the GT-6008 walker into a chair when attached</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT-1011 Series underarm or axillary  crutch models of older design.JPG</t>
   </si>
   <si>
@@ -1693,10 +1667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tool-free aluminum bath and shower chair with front-open seat panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>removable backrest assembly and handgrip bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2072,10 +2042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Walker Accessories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT-3001</t>
   </si>
   <si>
@@ -2161,9 +2127,6 @@
     <t>/gt-1012a/DSC_1435.png</t>
   </si>
   <si>
-    <t>/gt-3005a/DSC_2247.png</t>
-  </si>
-  <si>
     <t>/gt-6402/GT-6402.jpg</t>
   </si>
   <si>
@@ -2173,9 +2136,6 @@
     <t>/gt-5011tf/DSC_1538.png</t>
   </si>
   <si>
-    <t>/gt-5003tf/DSC_1490.png</t>
-  </si>
-  <si>
     <t>/gt-5009hd/DSC_1526.png</t>
   </si>
   <si>
@@ -2360,6 +2320,14 @@
   </si>
   <si>
     <t>exclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/gt-3001a/DSC_2286.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/gt-5013q/DSC_1553.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2746,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2761,149 +2729,149 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E4" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" t="s">
         <v>599</v>
       </c>
-      <c r="B9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" t="s">
-        <v>610</v>
-      </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -2931,142 +2899,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
         <v>601</v>
       </c>
-      <c r="C3" t="s">
-        <v>612</v>
-      </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D10" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3078,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3096,427 +3064,427 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F3" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E4" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F4" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E5" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F5" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E8" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C9" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E10" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E11" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C12" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E15" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E16" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D18" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E19" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E20" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D21" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F21" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D22" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D23" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E23" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F23" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D24" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E24" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D25" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E25" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F25" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,154 +3492,151 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
-      </c>
-      <c r="C26" t="s">
-        <v>579</v>
-      </c>
-      <c r="E26" t="s">
-        <v>652</v>
+        <v>335</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>365</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
-      </c>
-      <c r="C27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E27" t="s">
-        <v>652</v>
+        <v>336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>546</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
+        <v>330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>590</v>
       </c>
       <c r="F29" t="s">
-        <v>500</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
+        <v>331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" t="s">
+        <v>640</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C32" t="s">
-        <v>599</v>
+        <v>324</v>
+      </c>
+      <c r="D32" t="s">
+        <v>577</v>
       </c>
       <c r="E32" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" t="s">
-        <v>581</v>
+        <v>324</v>
+      </c>
+      <c r="D33" t="s">
+        <v>577</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="F33" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" t="s">
-        <v>599</v>
+        <v>324</v>
+      </c>
+      <c r="D34" t="s">
+        <v>577</v>
+      </c>
+      <c r="E34" t="s">
+        <v>641</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D35" t="s">
-        <v>586</v>
-      </c>
-      <c r="E35" t="s">
-        <v>652</v>
+        <v>333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>590</v>
       </c>
       <c r="F35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,16 +3644,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>586</v>
-      </c>
-      <c r="E36" t="s">
-        <v>652</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,30 +3658,30 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>586</v>
-      </c>
-      <c r="E37" t="s">
-        <v>652</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" t="s">
-        <v>599</v>
+        <v>325</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>641</v>
       </c>
       <c r="F38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,13 +3689,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,329 +3703,284 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>641</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>627</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>652</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>628</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="F43" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>629</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
+        <v>341</v>
+      </c>
+      <c r="C45" t="s">
+        <v>590</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>639</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>328</v>
-      </c>
-      <c r="D46" t="s">
-        <v>640</v>
+        <v>342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>571</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>639</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
-      </c>
-      <c r="D47" t="s">
-        <v>640</v>
+        <v>334</v>
+      </c>
+      <c r="C47" t="s">
+        <v>572</v>
       </c>
       <c r="F47" t="s">
-        <v>641</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>599</v>
+        <v>571</v>
+      </c>
+      <c r="E48" t="s">
+        <v>641</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>579</v>
+        <v>571</v>
+      </c>
+      <c r="E49" t="s">
+        <v>641</v>
       </c>
       <c r="F49" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>580</v>
+        <v>571</v>
+      </c>
+      <c r="E50" t="s">
+        <v>641</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="C51" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E51" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="F51" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" t="s">
         <v>348</v>
       </c>
-      <c r="B52" t="s">
-        <v>349</v>
-      </c>
       <c r="C52" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E52" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E53" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F53" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="C54" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E54" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F54" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="C55" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F55" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>278</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>434</v>
       </c>
       <c r="C56" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E56" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F56" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C57" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E57" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" t="s">
-        <v>440</v>
-      </c>
-      <c r="C58" t="s">
-        <v>577</v>
-      </c>
-      <c r="E58" t="s">
-        <v>650</v>
-      </c>
-      <c r="F58" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" t="s">
-        <v>441</v>
-      </c>
-      <c r="C59" t="s">
-        <v>577</v>
-      </c>
-      <c r="E59" t="s">
-        <v>650</v>
-      </c>
-      <c r="F59" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>395</v>
-      </c>
-      <c r="B60" t="s">
-        <v>434</v>
-      </c>
-      <c r="C60" t="s">
-        <v>577</v>
-      </c>
-      <c r="E60" t="s">
-        <v>650</v>
-      </c>
-      <c r="F60" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4077,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -4089,2058 +4006,2058 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B30" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B31" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B32" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B83" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B84" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B93" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B95" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B96" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B97" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B103" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B110" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B111" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B112" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B113" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B119" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B120" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B121" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B122" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B123" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B126" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B127" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B128" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B129" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B130" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B132" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B133" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B134" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B135" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B136" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B137" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B139" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B141" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B143" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B145" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B162" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B163" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B164" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B167" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B192" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B193" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B194" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B195" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B196" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B204" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B205" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B206" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B207" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B208" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B210" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B211" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B212" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B213" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B214" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B233" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B234" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B238" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B239" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B240" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B241" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B242" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B245" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B246" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B247" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B248" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B250" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B252" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B253" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B254" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B255" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B256" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B257" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6154,7 +6071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3F4349-1EB2-4F66-BEAE-FA963E498509}">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -6167,27 +6084,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C1" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6195,10 +6112,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -6206,13 +6123,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6220,13 +6137,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -6234,10 +6151,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -6245,10 +6162,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -6256,10 +6173,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -6267,10 +6184,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -6278,10 +6195,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -6289,10 +6206,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -6300,10 +6217,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -6311,10 +6228,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -6322,10 +6239,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -6333,10 +6250,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -6344,10 +6261,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -6355,10 +6272,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -6366,10 +6283,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -6377,10 +6294,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -6388,10 +6305,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -6399,13 +6316,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -6413,10 +6330,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -6424,10 +6341,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -6435,10 +6352,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -6446,10 +6363,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -6457,10 +6374,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -6468,10 +6385,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -6479,10 +6396,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -6490,10 +6407,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -6501,10 +6418,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -6512,10 +6429,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -6523,10 +6440,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>579</v>
+      </c>
+      <c r="B32" t="s">
         <v>588</v>
-      </c>
-      <c r="B32" t="s">
-        <v>597</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -6534,13 +6451,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -6548,13 +6465,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -6562,13 +6479,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -6576,10 +6493,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -6587,10 +6504,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -6598,13 +6515,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -6612,10 +6529,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -6623,13 +6540,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -6637,10 +6554,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -6648,10 +6565,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -6659,13 +6576,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -6673,10 +6590,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -6684,10 +6601,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -6695,13 +6612,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -6709,13 +6626,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -6723,13 +6640,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -6737,10 +6654,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -6748,10 +6665,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -6759,13 +6676,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -6773,10 +6690,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -6784,10 +6701,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -6795,13 +6712,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -6809,13 +6726,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -6823,13 +6740,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -6837,10 +6754,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -6848,10 +6765,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -6859,10 +6776,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -6870,10 +6787,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -6881,10 +6798,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -6892,10 +6809,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -6903,13 +6820,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -6917,13 +6834,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -6931,13 +6848,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -6945,13 +6862,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -6959,10 +6876,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -6970,13 +6887,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -6984,13 +6901,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -6998,13 +6915,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -7012,10 +6929,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -7023,10 +6940,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -7034,13 +6951,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -7048,13 +6965,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -7062,13 +6979,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -7076,13 +6993,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -7090,10 +7007,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -7101,13 +7018,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -7115,10 +7032,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -7126,13 +7043,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -7140,10 +7057,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -7151,10 +7068,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -7162,10 +7079,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -7173,10 +7090,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -7184,10 +7101,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B85" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -7195,10 +7112,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B86" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -7206,10 +7123,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -7217,10 +7134,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B88" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -7228,10 +7145,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B89" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -7239,10 +7156,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -7250,13 +7167,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -7264,10 +7181,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" t="s">
         <v>257</v>
-      </c>
-      <c r="B92" t="s">
-        <v>259</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -7275,10 +7192,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -7286,13 +7203,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -7300,13 +7217,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -7314,10 +7231,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -7325,13 +7242,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -7339,10 +7256,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -7350,13 +7267,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -7364,10 +7281,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -7375,10 +7292,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -7386,10 +7303,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -7397,10 +7314,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -7408,13 +7325,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -7422,13 +7339,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7436,10 +7353,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -7447,13 +7364,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -7461,10 +7378,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -7472,13 +7389,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -7486,13 +7403,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -7500,13 +7417,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -7514,10 +7431,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -7525,13 +7442,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -7539,13 +7456,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -7553,13 +7470,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -7567,10 +7484,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -7578,10 +7495,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -7589,13 +7506,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -7603,13 +7520,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -7617,13 +7534,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -7631,13 +7548,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -7645,10 +7562,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -7656,13 +7573,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -7670,13 +7587,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -7684,10 +7601,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -7695,13 +7612,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -7709,13 +7626,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -7723,10 +7640,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -7734,10 +7651,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -7745,10 +7662,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -7756,13 +7673,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -7770,10 +7687,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -7781,13 +7698,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -7795,13 +7712,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -7809,10 +7726,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -7820,10 +7737,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -7831,10 +7748,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -7842,13 +7759,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -7856,10 +7773,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -7867,13 +7784,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -7881,13 +7798,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -7895,10 +7812,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -7906,13 +7823,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -7920,10 +7837,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -7931,10 +7848,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -7942,10 +7859,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -7953,13 +7870,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -7967,10 +7884,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -7978,13 +7895,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -7992,13 +7909,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C150" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -8006,10 +7923,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -8017,13 +7934,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -8031,10 +7948,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -8042,10 +7959,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -8053,10 +7970,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>410</v>
+      </c>
+      <c r="B155" t="s">
         <v>417</v>
-      </c>
-      <c r="B155" t="s">
-        <v>424</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
@@ -8064,10 +7981,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B156" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -8075,10 +7992,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -8086,10 +8003,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -8097,10 +8014,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
@@ -8108,10 +8025,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
@@ -8119,10 +8036,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -8130,13 +8047,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -8144,13 +8061,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C163" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -8158,10 +8075,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -8169,13 +8086,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C165" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -8183,10 +8100,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -8194,10 +8111,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -8205,10 +8122,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B168" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -8216,10 +8133,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B169" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -8227,10 +8144,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B170" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -8238,10 +8155,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B171" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -8249,13 +8166,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -8263,13 +8180,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C173" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -8277,10 +8194,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -8288,13 +8205,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -8302,10 +8219,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B176" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -8313,10 +8230,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B177" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -8324,13 +8241,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -8338,13 +8255,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
@@ -8352,13 +8269,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -8366,13 +8283,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -8380,10 +8297,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -8391,10 +8308,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -8402,13 +8319,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C184" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -8416,13 +8333,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B185" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C185" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
@@ -8430,10 +8347,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -8441,13 +8358,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B187" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -8455,13 +8372,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C188" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -8469,13 +8386,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -8483,13 +8400,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -8497,10 +8414,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -8508,13 +8425,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -8522,13 +8439,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C193" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -8536,13 +8453,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -8550,10 +8467,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -8561,10 +8478,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -8572,10 +8489,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
@@ -8583,10 +8500,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -8594,10 +8511,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -8605,13 +8522,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C200" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -8619,10 +8536,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -8630,13 +8547,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C202" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -8644,13 +8561,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C203" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
@@ -8658,10 +8575,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -8669,10 +8586,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
@@ -8680,10 +8597,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -8691,10 +8608,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -8702,10 +8619,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -8713,10 +8630,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -8724,10 +8641,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -8735,10 +8652,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -8746,10 +8663,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -8757,10 +8674,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -8768,10 +8685,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -8779,13 +8696,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C215" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -8793,13 +8710,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C216" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -8807,10 +8724,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -8818,10 +8735,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -8829,13 +8746,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C219" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -8843,13 +8760,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -8857,13 +8774,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B221" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C221" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -8871,10 +8788,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -8882,10 +8799,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B223" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -8893,10 +8810,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B224" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -8904,10 +8821,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B225" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -8915,10 +8832,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B226" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
@@ -8926,13 +8843,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B227" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C227" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
@@ -8940,13 +8857,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B228" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C228" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -8954,13 +8871,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B229" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
@@ -8968,10 +8885,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
@@ -8979,10 +8896,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B231" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -8990,10 +8907,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B232" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
@@ -9001,10 +8918,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B233" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
@@ -9012,10 +8929,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
